--- a/medicine/Enfance/Ron_Embleton/Ron_Embleton.xlsx
+++ b/medicine/Enfance/Ron_Embleton/Ron_Embleton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ron Embleton (1930-1988) est un illustrateur et dessinateur de bandes dessinées britanniques dont la carrière s’est étalée sur quarante ans. À l’exception de Wulf the Briton aucune de ses bandes dessinées n’a été rééditée à ce jour. C’est pourquoi, il est davantage connu aujourd’hui comme illustrateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1930 à Londres, il envoie à 9 ans un dessin à la revue News of the World. Quelque temps plus tard un courrier parvient chez ses parents avec le commentaire suivant : « Faites-lui donner des cours ». C’est le peintre David Bomberg de la South East Essex Technical College and School of Art qui s’en charge. Ceci permet à son petit élève de gagner à 12 ans un concours national d’affiches publicitaires. Il débute véritablement sa carrière professionnelle à 17 ans en vendant un strip à Scion. Avec deux amis Terry Patrick et James Bleach, il crée un petit studio freelance où il dessine toujours pour Scion et sous le nom de Ron, Big Pirate, Big Eagle, Big Flame, Big Indian, etc.
 En 1948 il part faire son service militaire en Malaisie, à l’époque protectorat britannique, où il restera deux ans. À l’époque le pays est secoué par une insurrection communiste qui durera 12 ans et fera plusieurs milliers de morts. Cette expérience lui servira plus tard pour donner davantage de crédibilité encore à ses dessins recherchant une précision historique ce qui lui vaudra d’illustrer dans les années 1970 bon nombre d’ouvrages historiques.
@@ -551,7 +565,9 @@
           <t>L’illustrateur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wulf the Briton est la deuxième incursion d’Embleton dans le monde antique. Par rapport au Singing Sword son trait s’est davantage affirmé et surtout ses reproductions sont bien plus respectueuses de la réalité historique. Aussi lorsque Look and Learn, un quasi équivalent de Tout l’Univers voit le jour en 1962, il est appelé à rejoindre cette revue. Il y fera plus de 1.000 illustrations.
 Des illustrations pour des contes, des adaptations de romans et de plus en plus des reproductions historiques.
@@ -588,9 +604,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Illustrations historiques
-Antiquité romano-britannique (classement par date de publication)
-The Roman Wall Reconstructed, - Charles Daniels (Newscastle upon Tyne, F. Graham, 1974  (ISBN 0-85983-056-X))
+          <t>Illustrations historiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Antiquité romano-britannique (classement par date de publication)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Roman Wall Reconstructed, - Charles Daniels (Newscastle upon Tyne, F. Graham, 1974  (ISBN 0-85983-056-X))
 Historical Northumberland, - Frank Graham (Newcastle upon Tyne, 1975  (ISBN 0-902833-42-1))
 What the Soldiers Wore on Hadrian's Wall, - H. Russell Robinson (Newcastle upon Tyne, F. Graham, 1976  (ISBN 0-85983-093-4))
 Housesteads in the Days of the Romans, - Frank Graham (Newcastle upon Tyne, F. Graham, 1978  (ISBN 0-85983-116-7))
@@ -605,10 +629,47 @@
 Benwell to Chester in the Days of the Romans, - Frank Graham (Newcastle upon Tyne, F. Graham, 1982  (ISBN 0-85983-147-7))
 Hadrian's Wall in the Days of the Romans, - Frank Graham (Newcastle upon Tyne, F. Graham, 1984  (ISBN 0-85983-177-9))
 Hadrian's Wall Reconstructed (Butler, 1987  (ISBN 0-946928-14-2))
-Caesar's Legions. The Roman soldier 753BC to 117AD, - sous la direction de Nicholas V. Sekunda. (Oxford, Osprey, 2000  (ISBN 1-84176-044-7)). Avec d’autres illustrations de Richard Hook et Angus McBride.
-Illustrations de contes et histoires pour enfants
-Collection Young World
-Slumber Tales, adapté par Shirley Dean -1968
+Caesar's Legions. The Roman soldier 753BC to 117AD, - sous la direction de Nicholas V. Sekunda. (Oxford, Osprey, 2000  (ISBN 1-84176-044-7)). Avec d’autres illustrations de Richard Hook et Angus McBride.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations de contes et histoires pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collection Young World</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Slumber Tales, adapté par Shirley Dean -1968
 The Land of Tales, adapté par Edward Holmes -1969
 The Nightingale Book of Fairy Tales, adapté par Shirley Dean -1969)
 Time for Tales, adapté par Phylis Brown -1969
@@ -619,13 +680,85 @@
 Jack and the Beanstalk, and other fairy stories, par Anne Webb -1971
 Sleeping Beauty, and other fairy tales, par Anne Webb -1971
 Snow White, and other fairy tales, par Anne Webb -1971
-My Rhyme Book of Fairytale Land -1972
-Chez Blackie
-The Ghost of Crumbling Castle, par Jane MacMichael -1972
+My Rhyme Book of Fairytale Land -1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations de contes et histoires pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chez Blackie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Ghost of Crumbling Castle, par Jane MacMichael -1972
 The Frog Prince and five other traditional tales, adapté par MacMichael -1973
-Snow-White and the Seven Dwarfs, adapté par Christian Willcox -1973
-Bande dessinée
-Ron Embleton's Wulf the Briton – Book Palace Books (2010)</t>
+Snow-White and the Seven Dwarfs, adapté par Christian Willcox -1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ron_Embleton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ron Embleton's Wulf the Briton – Book Palace Books (2010)</t>
         </is>
       </c>
     </row>
